--- a/data/output_sim/sim_2025.xlsx
+++ b/data/output_sim/sim_2025.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,10 +463,15 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>UnmetCost_PHP</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>BatterySOC_end_kWh</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Health_after_month</t>
         </is>
@@ -491,9 +496,12 @@
         <v>15347.28</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>276251.05</v>
       </c>
       <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
         <v>100</v>
       </c>
     </row>
@@ -516,9 +524,12 @@
         <v>24628.73</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>443317.17</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>99.93300000000001</v>
       </c>
     </row>
@@ -541,9 +552,12 @@
         <v>10016.05</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>180288.89</v>
       </c>
       <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
         <v>99.867</v>
       </c>
     </row>
@@ -566,9 +580,12 @@
         <v>21337.79</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>384080.28</v>
       </c>
       <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
         <v>99.8</v>
       </c>
     </row>
@@ -591,9 +608,12 @@
         <v>33682.89</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>606292.02</v>
       </c>
       <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
         <v>99.733</v>
       </c>
     </row>
@@ -616,9 +636,12 @@
         <v>24580.85</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>442455.34</v>
       </c>
       <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
         <v>99.667</v>
       </c>
     </row>
@@ -641,9 +664,12 @@
         <v>16785.46</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>302138.2</v>
       </c>
       <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
         <v>99.59999999999999</v>
       </c>
     </row>
@@ -666,9 +692,12 @@
         <v>28844.43</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>519199.67</v>
       </c>
       <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
         <v>99.533</v>
       </c>
     </row>
@@ -691,9 +720,12 @@
         <v>36304.4</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>653479.23</v>
       </c>
       <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
         <v>99.467</v>
       </c>
     </row>
@@ -716,9 +748,12 @@
         <v>24337.64</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>438077.53</v>
       </c>
       <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
         <v>99.40000000000001</v>
       </c>
     </row>
@@ -741,9 +776,12 @@
         <v>7700.49</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>138608.84</v>
       </c>
       <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
         <v>99.333</v>
       </c>
     </row>
@@ -766,9 +804,12 @@
         <v>5719.97</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>102959.37</v>
       </c>
       <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
         <v>99.267</v>
       </c>
     </row>
@@ -1057,7 +1098,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1111,6 +1152,11 @@
           <t>InitialHealth</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>TotalUnmetCost_PHP</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -1139,6 +1185,9 @@
       </c>
       <c r="I2" t="n">
         <v>100</v>
+      </c>
+      <c r="J2" t="n">
+        <v>4487147.59</v>
       </c>
     </row>
   </sheetData>
